--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11839.91503192791</v>
+        <v>2356143.091353654</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11839.91503192791</v>
+        <v>2356143.091353654</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28548.31941120085</v>
+        <v>1715742.556490993</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28548.31941120085</v>
+        <v>1715742.556490993</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189637825.311005</v>
+        <v>48418641.41536631</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11496.58387435897</v>
+        <v>1198091.570774184</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21697.98826314732</v>
+        <v>2174108.777031944</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31899.39265193565</v>
+        <v>3150125.983289706</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43183.02737215518</v>
+        <v>4067502.736645187</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54466.66209237468</v>
+        <v>4984879.490000667</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64785.11247550807</v>
+        <v>5960598.204850554</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75103.56285864147</v>
+        <v>6936316.919700437</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85422.01324177487</v>
+        <v>7912035.63455032</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96499.10654532068</v>
+        <v>8815094.648931492</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107634.7136288263</v>
+        <v>9732281.343826916</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118769.7222581914</v>
+        <v>10649357.72437891</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129904.7749982627</v>
+        <v>11566434.10493091</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141039.827738334</v>
+        <v>12483510.48548292</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152174.8804784053</v>
+        <v>13400586.86603492</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163320.8311556885</v>
+        <v>14317104.23031509</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>84</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
